--- a/data/new 3-01/design.xlsx
+++ b/data/new 3-01/design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_zyde_student_kuleuven_be/Documents/AI masterpreof/data/new 3-01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_zyde_student_kuleuven_be/Documents/AI masterpreof/git map/data/new 3-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C022B1E859C3E39E770E737EB837BB0BF0C39AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{370DBA81-23B5-43AD-9FEF-608B923EE0AF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_C022B1E859C3E39E770E737EB837BB0BF0C39AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB686709-17FB-452C-B05A-6F987A100742}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4576,13 +4576,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="AC212" sqref="AC212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" customWidth="1"/>
+    <col min="24" max="24" width="23.77734375" customWidth="1"/>
+    <col min="29" max="29" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
@@ -37738,12 +37746,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DoEID xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">Overall</DoEID>
+    <Category xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">5</Category>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37954,18 +37962,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DoEID xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">Overall</DoEID>
-    <Category xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">5</Category>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA806321-550C-4807-8C4C-131D6D7AD412}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{630DDF52-06A2-40F7-A6DE-B2D5D176C517}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37990,11 +38000,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{630DDF52-06A2-40F7-A6DE-B2D5D176C517}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA806321-550C-4807-8C4C-131D6D7AD412}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/new 3-01/design.xlsx
+++ b/data/new 3-01/design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_zyde_student_kuleuven_be/Documents/AI masterpreof/git map/data/new 3-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_C022B1E859C3E39E770E737EB837BB0BF0C39AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB686709-17FB-452C-B05A-6F987A100742}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_C022B1E859C3E39E770E737EB837BB0BF0C39AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183148BD-DB11-41EA-8AA2-20F8C3B16A08}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="924" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4576,10 +4576,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AC212" sqref="AC212"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4591,6 +4591,7 @@
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="23.77734375" customWidth="1"/>
     <col min="29" max="29" width="17.21875" customWidth="1"/>
+    <col min="34" max="34" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">

--- a/data/new 3-01/design.xlsx
+++ b/data/new 3-01/design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_zyde_student_kuleuven_be/Documents/AI masterpreof/git map/data/new 3-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_C022B1E859C3E39E770E737EB837BB0BF0C39AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183148BD-DB11-41EA-8AA2-20F8C3B16A08}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_C022B1E859C3E39E770E737EB837BB0BF0C39AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47699FF6-F35F-48B6-9E24-50EEA6B2949F}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="924" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4576,10 +4576,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="P183" sqref="P183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4588,6 +4588,8 @@
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" customWidth="1"/>
+    <col min="20" max="20" width="21.109375" customWidth="1"/>
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="23.77734375" customWidth="1"/>
     <col min="29" max="29" width="17.21875" customWidth="1"/>

--- a/data/new 3-01/design.xlsx
+++ b/data/new 3-01/design.xlsx
@@ -4576,10 +4576,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="P183" sqref="P183"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/new 3-01/design.xlsx
+++ b/data/new 3-01/design.xlsx
@@ -4576,10 +4576,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37749,15 +37749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DoEID xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">Overall</DoEID>
-    <Category xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">5</Category>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087435F6899F1B2409B36EB0D707E2E02" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="618935c53e0da55a6ecc0ba98a0ea4fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae" xmlns:ns3="0aff8b30-7e11-4d37-bcca-6732d58cd138" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d124c1185bc2896e9bc906c77e4e1e3b" ns2:_="" ns3:_="">
     <xsd:import namespace="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae"/>
@@ -37964,6 +37955,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DoEID xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">Overall</DoEID>
+    <Category xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">5</Category>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -37974,16 +37974,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{630DDF52-06A2-40F7-A6DE-B2D5D176C517}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{229BC0FD-A88A-48F9-986F-A68B3884D83F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38002,6 +37992,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{630DDF52-06A2-40F7-A6DE-B2D5D176C517}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA806321-550C-4807-8C4C-131D6D7AD412}">
   <ds:schemaRefs>
